--- a/data-raw/gabriel_hess/da.xlsx
+++ b/data-raw/gabriel_hess/da.xlsx
@@ -372,7 +372,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>rj</t>
+          <t>origem</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
